--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Dhh-Ptch1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Dhh-Ptch1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Ptch1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.08864570572383</v>
+        <v>3.778327333333333</v>
       </c>
       <c r="H2">
-        <v>3.08864570572383</v>
+        <v>11.334982</v>
       </c>
       <c r="I2">
-        <v>0.6493573882380687</v>
+        <v>0.6340793198407454</v>
       </c>
       <c r="J2">
-        <v>0.6493573882380687</v>
+        <v>0.6340793198407454</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.44811492873638</v>
+        <v>6.804216666666666</v>
       </c>
       <c r="N2">
-        <v>6.44811492873638</v>
+        <v>20.41265</v>
       </c>
       <c r="O2">
-        <v>0.5384717679932417</v>
+        <v>0.5307552498751353</v>
       </c>
       <c r="P2">
-        <v>0.5384717679932417</v>
+        <v>0.5307552498751353</v>
       </c>
       <c r="Q2">
-        <v>19.91594248465534</v>
+        <v>25.70855781358889</v>
       </c>
       <c r="R2">
-        <v>19.91594248465534</v>
+        <v>231.3770203223</v>
       </c>
       <c r="S2">
-        <v>0.3496606209040267</v>
+        <v>0.3365409278427307</v>
       </c>
       <c r="T2">
-        <v>0.3496606209040267</v>
+        <v>0.3365409278427307</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.08864570572383</v>
+        <v>3.778327333333333</v>
       </c>
       <c r="H3">
-        <v>3.08864570572383</v>
+        <v>11.334982</v>
       </c>
       <c r="I3">
-        <v>0.6493573882380687</v>
+        <v>0.6340793198407454</v>
       </c>
       <c r="J3">
-        <v>0.6493573882380687</v>
+        <v>0.6340793198407454</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.5835170279805</v>
+        <v>1.663404</v>
       </c>
       <c r="N3">
-        <v>1.5835170279805</v>
+        <v>4.990212</v>
       </c>
       <c r="O3">
-        <v>0.1322369751668122</v>
+        <v>0.1297519536654917</v>
       </c>
       <c r="P3">
-        <v>0.1322369751668122</v>
+        <v>0.1297519536654917</v>
       </c>
       <c r="Q3">
-        <v>4.890923068412533</v>
+        <v>6.284884799576</v>
       </c>
       <c r="R3">
-        <v>4.890923068412533</v>
+        <v>56.563963196184</v>
       </c>
       <c r="S3">
-        <v>0.0858690568228235</v>
+        <v>0.08227303052822288</v>
       </c>
       <c r="T3">
-        <v>0.0858690568228235</v>
+        <v>0.08227303052822287</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.08864570572383</v>
+        <v>3.778327333333333</v>
       </c>
       <c r="H4">
-        <v>3.08864570572383</v>
+        <v>11.334982</v>
       </c>
       <c r="I4">
-        <v>0.6493573882380687</v>
+        <v>0.6340793198407454</v>
       </c>
       <c r="J4">
-        <v>0.6493573882380687</v>
+        <v>0.6340793198407454</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.586038221031697</v>
+        <v>0.6000583333333332</v>
       </c>
       <c r="N4">
-        <v>0.586038221031697</v>
+        <v>1.800175</v>
       </c>
       <c r="O4">
-        <v>0.04893911483869791</v>
+        <v>0.04680687377405539</v>
       </c>
       <c r="P4">
-        <v>0.04893911483869791</v>
+        <v>0.04680687377405538</v>
       </c>
       <c r="Q4">
-        <v>1.810064434779584</v>
+        <v>2.267216802427777</v>
       </c>
       <c r="R4">
-        <v>1.810064434779584</v>
+        <v>20.40495122185</v>
       </c>
       <c r="S4">
-        <v>0.03177897579433978</v>
+        <v>0.02967927068652466</v>
       </c>
       <c r="T4">
-        <v>0.03177897579433978</v>
+        <v>0.02967927068652466</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.08864570572383</v>
+        <v>3.778327333333333</v>
       </c>
       <c r="H5">
-        <v>3.08864570572383</v>
+        <v>11.334982</v>
       </c>
       <c r="I5">
-        <v>0.6493573882380687</v>
+        <v>0.6340793198407454</v>
       </c>
       <c r="J5">
-        <v>0.6493573882380687</v>
+        <v>0.6340793198407454</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.03233193033572</v>
+        <v>1.095173333333333</v>
       </c>
       <c r="N5">
-        <v>1.03233193033572</v>
+        <v>3.28552</v>
       </c>
       <c r="O5">
-        <v>0.08620838893649897</v>
+        <v>0.08542776114662989</v>
       </c>
       <c r="P5">
-        <v>0.08620838893649897</v>
+        <v>0.08542776114662988</v>
       </c>
       <c r="Q5">
-        <v>3.188507583513013</v>
+        <v>4.137923340071112</v>
       </c>
       <c r="R5">
-        <v>3.188507583513013</v>
+        <v>37.24131006064</v>
       </c>
       <c r="S5">
-        <v>0.05598005428401659</v>
+        <v>0.05416797668337274</v>
       </c>
       <c r="T5">
-        <v>0.05598005428401659</v>
+        <v>0.05416797668337273</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.08864570572383</v>
+        <v>3.778327333333333</v>
       </c>
       <c r="H6">
-        <v>3.08864570572383</v>
+        <v>11.334982</v>
       </c>
       <c r="I6">
-        <v>0.6493573882380687</v>
+        <v>0.6340793198407454</v>
       </c>
       <c r="J6">
-        <v>0.6493573882380687</v>
+        <v>0.6340793198407454</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.3248409793574</v>
+        <v>2.657024</v>
       </c>
       <c r="N6">
-        <v>2.3248409793574</v>
+        <v>7.971071999999999</v>
       </c>
       <c r="O6">
-        <v>0.1941437530647492</v>
+        <v>0.2072581615386878</v>
       </c>
       <c r="P6">
-        <v>0.1941437530647492</v>
+        <v>0.2072581615386877</v>
       </c>
       <c r="Q6">
-        <v>7.180610107383018</v>
+        <v>10.03910640452267</v>
       </c>
       <c r="R6">
-        <v>7.180610107383018</v>
+        <v>90.351957640704</v>
       </c>
       <c r="S6">
-        <v>0.1260686804328621</v>
+        <v>0.1314181140998945</v>
       </c>
       <c r="T6">
-        <v>0.1260686804328621</v>
+        <v>0.1314181140998945</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.09106225476578</v>
+        <v>1.390555</v>
       </c>
       <c r="H7">
-        <v>1.09106225476578</v>
+        <v>4.171665</v>
       </c>
       <c r="I7">
-        <v>0.2293851103889591</v>
+        <v>0.2333630971626989</v>
       </c>
       <c r="J7">
-        <v>0.2293851103889591</v>
+        <v>0.2333630971626989</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.44811492873638</v>
+        <v>6.804216666666666</v>
       </c>
       <c r="N7">
-        <v>6.44811492873638</v>
+        <v>20.41265</v>
       </c>
       <c r="O7">
-        <v>0.5384717679932417</v>
+        <v>0.5307552498751353</v>
       </c>
       <c r="P7">
-        <v>0.5384717679932417</v>
+        <v>0.5307552498751353</v>
       </c>
       <c r="Q7">
-        <v>7.035294813136002</v>
+        <v>9.461637506916666</v>
       </c>
       <c r="R7">
-        <v>7.035294813136002</v>
+        <v>85.15473756224999</v>
       </c>
       <c r="S7">
-        <v>0.1235174059424677</v>
+        <v>0.1238586889462237</v>
       </c>
       <c r="T7">
-        <v>0.1235174059424677</v>
+        <v>0.1238586889462237</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.09106225476578</v>
+        <v>1.390555</v>
       </c>
       <c r="H8">
-        <v>1.09106225476578</v>
+        <v>4.171665</v>
       </c>
       <c r="I8">
-        <v>0.2293851103889591</v>
+        <v>0.2333630971626989</v>
       </c>
       <c r="J8">
-        <v>0.2293851103889591</v>
+        <v>0.2333630971626989</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.5835170279805</v>
+        <v>1.663404</v>
       </c>
       <c r="N8">
-        <v>1.5835170279805</v>
+        <v>4.990212</v>
       </c>
       <c r="O8">
-        <v>0.1322369751668122</v>
+        <v>0.1297519536654917</v>
       </c>
       <c r="P8">
-        <v>0.1322369751668122</v>
+        <v>0.1297519536654917</v>
       </c>
       <c r="Q8">
-        <v>1.727715659008411</v>
+        <v>2.31305474922</v>
       </c>
       <c r="R8">
-        <v>1.727715659008411</v>
+        <v>20.81749274298</v>
       </c>
       <c r="S8">
-        <v>0.03033319314614125</v>
+        <v>0.03027931777029014</v>
       </c>
       <c r="T8">
-        <v>0.03033319314614125</v>
+        <v>0.03027931777029014</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.09106225476578</v>
+        <v>1.390555</v>
       </c>
       <c r="H9">
-        <v>1.09106225476578</v>
+        <v>4.171665</v>
       </c>
       <c r="I9">
-        <v>0.2293851103889591</v>
+        <v>0.2333630971626989</v>
       </c>
       <c r="J9">
-        <v>0.2293851103889591</v>
+        <v>0.2333630971626989</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.586038221031697</v>
+        <v>0.6000583333333332</v>
       </c>
       <c r="N9">
-        <v>0.586038221031697</v>
+        <v>1.800175</v>
       </c>
       <c r="O9">
-        <v>0.04893911483869791</v>
+        <v>0.04680687377405539</v>
       </c>
       <c r="P9">
-        <v>0.04893911483869791</v>
+        <v>0.04680687377405538</v>
       </c>
       <c r="Q9">
-        <v>0.6394041828177699</v>
+        <v>0.8344141157083332</v>
       </c>
       <c r="R9">
-        <v>0.6394041828177699</v>
+        <v>7.509727041374999</v>
       </c>
       <c r="S9">
-        <v>0.01122590425961266</v>
+        <v>0.01092299703241707</v>
       </c>
       <c r="T9">
-        <v>0.01122590425961266</v>
+        <v>0.01092299703241707</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.09106225476578</v>
+        <v>1.390555</v>
       </c>
       <c r="H10">
-        <v>1.09106225476578</v>
+        <v>4.171665</v>
       </c>
       <c r="I10">
-        <v>0.2293851103889591</v>
+        <v>0.2333630971626989</v>
       </c>
       <c r="J10">
-        <v>0.2293851103889591</v>
+        <v>0.2333630971626989</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.03233193033572</v>
+        <v>1.095173333333333</v>
       </c>
       <c r="N10">
-        <v>1.03233193033572</v>
+        <v>3.28552</v>
       </c>
       <c r="O10">
-        <v>0.08620838893649897</v>
+        <v>0.08542776114662989</v>
       </c>
       <c r="P10">
-        <v>0.08620838893649897</v>
+        <v>0.08542776114662988</v>
       </c>
       <c r="Q10">
-        <v>1.126338403578801</v>
+        <v>1.522898754533333</v>
       </c>
       <c r="R10">
-        <v>1.126338403578801</v>
+        <v>13.7060887908</v>
       </c>
       <c r="S10">
-        <v>0.01977492081265313</v>
+        <v>0.01993568692485283</v>
       </c>
       <c r="T10">
-        <v>0.01977492081265313</v>
+        <v>0.01993568692485282</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.09106225476578</v>
+        <v>1.390555</v>
       </c>
       <c r="H11">
-        <v>1.09106225476578</v>
+        <v>4.171665</v>
       </c>
       <c r="I11">
-        <v>0.2293851103889591</v>
+        <v>0.2333630971626989</v>
       </c>
       <c r="J11">
-        <v>0.2293851103889591</v>
+        <v>0.2333630971626989</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.3248409793574</v>
+        <v>2.657024</v>
       </c>
       <c r="N11">
-        <v>2.3248409793574</v>
+        <v>7.971071999999999</v>
       </c>
       <c r="O11">
-        <v>0.1941437530647492</v>
+        <v>0.2072581615386878</v>
       </c>
       <c r="P11">
-        <v>0.1941437530647492</v>
+        <v>0.2072581615386877</v>
       </c>
       <c r="Q11">
-        <v>2.536546240909569</v>
+        <v>3.69473800832</v>
       </c>
       <c r="R11">
-        <v>2.536546240909569</v>
+        <v>33.25264207488</v>
       </c>
       <c r="S11">
-        <v>0.04453368622808431</v>
+        <v>0.04836640648891514</v>
       </c>
       <c r="T11">
-        <v>0.04453368622808431</v>
+        <v>0.04836640648891513</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.226073818979451</v>
+        <v>0.2515026666666667</v>
       </c>
       <c r="H12">
-        <v>0.226073818979451</v>
+        <v>0.754508</v>
       </c>
       <c r="I12">
-        <v>0.04752979740261232</v>
+        <v>0.04220720592713788</v>
       </c>
       <c r="J12">
-        <v>0.04752979740261232</v>
+        <v>0.04220720592713787</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.44811492873638</v>
+        <v>6.804216666666666</v>
       </c>
       <c r="N12">
-        <v>6.44811492873638</v>
+        <v>20.41265</v>
       </c>
       <c r="O12">
-        <v>0.5384717679932417</v>
+        <v>0.5307552498751353</v>
       </c>
       <c r="P12">
-        <v>0.5384717679932417</v>
+        <v>0.5307552498751353</v>
       </c>
       <c r="Q12">
-        <v>1.457749967157844</v>
+        <v>1.711278636244444</v>
       </c>
       <c r="R12">
-        <v>1.457749967157844</v>
+        <v>15.4015077262</v>
       </c>
       <c r="S12">
-        <v>0.02559345403974525</v>
+        <v>0.02240169612838936</v>
       </c>
       <c r="T12">
-        <v>0.02559345403974525</v>
+        <v>0.02240169612838935</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.226073818979451</v>
+        <v>0.2515026666666667</v>
       </c>
       <c r="H13">
-        <v>0.226073818979451</v>
+        <v>0.754508</v>
       </c>
       <c r="I13">
-        <v>0.04752979740261232</v>
+        <v>0.04220720592713788</v>
       </c>
       <c r="J13">
-        <v>0.04752979740261232</v>
+        <v>0.04220720592713787</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.5835170279805</v>
+        <v>1.663404</v>
       </c>
       <c r="N13">
-        <v>1.5835170279805</v>
+        <v>4.990212</v>
       </c>
       <c r="O13">
-        <v>0.1322369751668122</v>
+        <v>0.1297519536654917</v>
       </c>
       <c r="P13">
-        <v>0.1322369751668122</v>
+        <v>0.1297519536654917</v>
       </c>
       <c r="Q13">
-        <v>0.3579917419345418</v>
+        <v>0.4183505417439999</v>
       </c>
       <c r="R13">
-        <v>0.3579917419345418</v>
+        <v>3.765154875696</v>
       </c>
       <c r="S13">
-        <v>0.00628519663881286</v>
+        <v>0.00547646742780786</v>
       </c>
       <c r="T13">
-        <v>0.00628519663881286</v>
+        <v>0.005476467427807858</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.226073818979451</v>
+        <v>0.2515026666666667</v>
       </c>
       <c r="H14">
-        <v>0.226073818979451</v>
+        <v>0.754508</v>
       </c>
       <c r="I14">
-        <v>0.04752979740261232</v>
+        <v>0.04220720592713788</v>
       </c>
       <c r="J14">
-        <v>0.04752979740261232</v>
+        <v>0.04220720592713787</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.586038221031697</v>
+        <v>0.6000583333333332</v>
       </c>
       <c r="N14">
-        <v>0.586038221031697</v>
+        <v>1.800175</v>
       </c>
       <c r="O14">
-        <v>0.04893911483869791</v>
+        <v>0.04680687377405539</v>
       </c>
       <c r="P14">
-        <v>0.04893911483869791</v>
+        <v>0.04680687377405538</v>
       </c>
       <c r="Q14">
-        <v>0.1324878986965594</v>
+        <v>0.1509162709888889</v>
       </c>
       <c r="R14">
-        <v>0.1324878986965594</v>
+        <v>1.3582464389</v>
       </c>
       <c r="S14">
-        <v>0.00232606621334649</v>
+        <v>0.001975587360187105</v>
       </c>
       <c r="T14">
-        <v>0.00232606621334649</v>
+        <v>0.001975587360187105</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.226073818979451</v>
+        <v>0.2515026666666667</v>
       </c>
       <c r="H15">
-        <v>0.226073818979451</v>
+        <v>0.754508</v>
       </c>
       <c r="I15">
-        <v>0.04752979740261232</v>
+        <v>0.04220720592713788</v>
       </c>
       <c r="J15">
-        <v>0.04752979740261232</v>
+        <v>0.04220720592713787</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.03233193033572</v>
+        <v>1.095173333333333</v>
       </c>
       <c r="N15">
-        <v>1.03233193033572</v>
+        <v>3.28552</v>
       </c>
       <c r="O15">
-        <v>0.08620838893649897</v>
+        <v>0.08542776114662989</v>
       </c>
       <c r="P15">
-        <v>0.08620838893649897</v>
+        <v>0.08542776114662988</v>
       </c>
       <c r="Q15">
-        <v>0.2333832219454248</v>
+        <v>0.2754390137955555</v>
       </c>
       <c r="R15">
-        <v>0.2333832219454248</v>
+        <v>2.47895112416</v>
       </c>
       <c r="S15">
-        <v>0.004097467260557402</v>
+        <v>0.003605667106610156</v>
       </c>
       <c r="T15">
-        <v>0.004097467260557402</v>
+        <v>0.003605667106610155</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.226073818979451</v>
+        <v>0.2515026666666667</v>
       </c>
       <c r="H16">
-        <v>0.226073818979451</v>
+        <v>0.754508</v>
       </c>
       <c r="I16">
-        <v>0.04752979740261232</v>
+        <v>0.04220720592713788</v>
       </c>
       <c r="J16">
-        <v>0.04752979740261232</v>
+        <v>0.04220720592713787</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.3248409793574</v>
+        <v>2.657024</v>
       </c>
       <c r="N16">
-        <v>2.3248409793574</v>
+        <v>7.971071999999999</v>
       </c>
       <c r="O16">
-        <v>0.1941437530647492</v>
+        <v>0.2072581615386878</v>
       </c>
       <c r="P16">
-        <v>0.1941437530647492</v>
+        <v>0.2072581615386877</v>
       </c>
       <c r="Q16">
-        <v>0.5255856787232545</v>
+        <v>0.6682486213973332</v>
       </c>
       <c r="R16">
-        <v>0.5255856787232545</v>
+        <v>6.014237592575999</v>
       </c>
       <c r="S16">
-        <v>0.009227613250150327</v>
+        <v>0.008747787904143402</v>
       </c>
       <c r="T16">
-        <v>0.009227613250150327</v>
+        <v>0.008747787904143399</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1467,49 +1467,49 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.350683245290871</v>
+        <v>0.1830476666666667</v>
       </c>
       <c r="H17">
-        <v>0.350683245290871</v>
+        <v>0.549143</v>
       </c>
       <c r="I17">
-        <v>0.07372770397035994</v>
+        <v>0.03071908009516967</v>
       </c>
       <c r="J17">
-        <v>0.07372770397035994</v>
+        <v>0.03071908009516967</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.44811492873638</v>
+        <v>6.804216666666666</v>
       </c>
       <c r="N17">
-        <v>6.44811492873638</v>
+        <v>20.41265</v>
       </c>
       <c r="O17">
-        <v>0.5384717679932417</v>
+        <v>0.5307552498751353</v>
       </c>
       <c r="P17">
-        <v>0.5384717679932417</v>
+        <v>0.5307552498751353</v>
       </c>
       <c r="Q17">
-        <v>2.261245869217787</v>
+        <v>1.245495984327778</v>
       </c>
       <c r="R17">
-        <v>2.261245869217787</v>
+        <v>11.20946385895</v>
       </c>
       <c r="S17">
-        <v>0.03970028710700206</v>
+        <v>0.01630431303184608</v>
       </c>
       <c r="T17">
-        <v>0.03970028710700206</v>
+        <v>0.01630431303184607</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1529,49 +1529,49 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.350683245290871</v>
+        <v>0.1830476666666667</v>
       </c>
       <c r="H18">
-        <v>0.350683245290871</v>
+        <v>0.549143</v>
       </c>
       <c r="I18">
-        <v>0.07372770397035994</v>
+        <v>0.03071908009516967</v>
       </c>
       <c r="J18">
-        <v>0.07372770397035994</v>
+        <v>0.03071908009516967</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.5835170279805</v>
+        <v>1.663404</v>
       </c>
       <c r="N18">
-        <v>1.5835170279805</v>
+        <v>4.990212</v>
       </c>
       <c r="O18">
-        <v>0.1322369751668122</v>
+        <v>0.1297519536654917</v>
       </c>
       <c r="P18">
-        <v>0.1322369751668122</v>
+        <v>0.1297519536654917</v>
       </c>
       <c r="Q18">
-        <v>0.5553128903455568</v>
+        <v>0.304482220924</v>
       </c>
       <c r="R18">
-        <v>0.5553128903455568</v>
+        <v>2.740339988316</v>
       </c>
       <c r="S18">
-        <v>0.009749528559034567</v>
+        <v>0.003985860657154983</v>
       </c>
       <c r="T18">
-        <v>0.009749528559034567</v>
+        <v>0.003985860657154982</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1591,49 +1591,49 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.350683245290871</v>
+        <v>0.1830476666666667</v>
       </c>
       <c r="H19">
-        <v>0.350683245290871</v>
+        <v>0.549143</v>
       </c>
       <c r="I19">
-        <v>0.07372770397035994</v>
+        <v>0.03071908009516967</v>
       </c>
       <c r="J19">
-        <v>0.07372770397035994</v>
+        <v>0.03071908009516967</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.586038221031697</v>
+        <v>0.6000583333333332</v>
       </c>
       <c r="N19">
-        <v>0.586038221031697</v>
+        <v>1.800175</v>
       </c>
       <c r="O19">
-        <v>0.04893911483869791</v>
+        <v>0.04680687377405539</v>
       </c>
       <c r="P19">
-        <v>0.04893911483869791</v>
+        <v>0.04680687377405538</v>
       </c>
       <c r="Q19">
-        <v>0.2055137852158843</v>
+        <v>0.1098392777805555</v>
       </c>
       <c r="R19">
-        <v>0.2055137852158843</v>
+        <v>0.988553500025</v>
       </c>
       <c r="S19">
-        <v>0.003608168571398969</v>
+        <v>0.001437864104469704</v>
       </c>
       <c r="T19">
-        <v>0.003608168571398969</v>
+        <v>0.001437864104469704</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.350683245290871</v>
+        <v>0.1830476666666667</v>
       </c>
       <c r="H20">
-        <v>0.350683245290871</v>
+        <v>0.549143</v>
       </c>
       <c r="I20">
-        <v>0.07372770397035994</v>
+        <v>0.03071908009516967</v>
       </c>
       <c r="J20">
-        <v>0.07372770397035994</v>
+        <v>0.03071908009516967</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.03233193033572</v>
+        <v>1.095173333333333</v>
       </c>
       <c r="N20">
-        <v>1.03233193033572</v>
+        <v>3.28552</v>
       </c>
       <c r="O20">
-        <v>0.08620838893649897</v>
+        <v>0.08542776114662989</v>
       </c>
       <c r="P20">
-        <v>0.08620838893649897</v>
+        <v>0.08542776114662988</v>
       </c>
       <c r="Q20">
-        <v>0.3620215115475197</v>
+        <v>0.2004689232622222</v>
       </c>
       <c r="R20">
-        <v>0.3620215115475197</v>
+        <v>1.80422030936</v>
       </c>
       <c r="S20">
-        <v>0.006355946579271849</v>
+        <v>0.002624262237014347</v>
       </c>
       <c r="T20">
-        <v>0.006355946579271849</v>
+        <v>0.002624262237014347</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.1830476666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.549143</v>
+      </c>
+      <c r="I21">
+        <v>0.03071908009516967</v>
+      </c>
+      <c r="J21">
+        <v>0.03071908009516967</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.657024</v>
+      </c>
+      <c r="N21">
+        <v>7.971071999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.2072581615386878</v>
+      </c>
+      <c r="P21">
+        <v>0.2072581615386877</v>
+      </c>
+      <c r="Q21">
+        <v>0.4863620434773334</v>
+      </c>
+      <c r="R21">
+        <v>4.377258391296</v>
+      </c>
+      <c r="S21">
+        <v>0.006366780064684563</v>
+      </c>
+      <c r="T21">
+        <v>0.006366780064684561</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3553286666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.065986</v>
+      </c>
+      <c r="I22">
+        <v>0.05963129697424812</v>
+      </c>
+      <c r="J22">
+        <v>0.05963129697424811</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>6.804216666666666</v>
+      </c>
+      <c r="N22">
+        <v>20.41265</v>
+      </c>
+      <c r="O22">
+        <v>0.5307552498751353</v>
+      </c>
+      <c r="P22">
+        <v>0.5307552498751353</v>
+      </c>
+      <c r="Q22">
+        <v>2.417733235877778</v>
+      </c>
+      <c r="R22">
+        <v>21.7595991229</v>
+      </c>
+      <c r="S22">
+        <v>0.03164962392594546</v>
+      </c>
+      <c r="T22">
+        <v>0.03164962392594546</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3553286666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.065986</v>
+      </c>
+      <c r="I23">
+        <v>0.05963129697424812</v>
+      </c>
+      <c r="J23">
+        <v>0.05963129697424811</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.663404</v>
+      </c>
+      <c r="N23">
+        <v>4.990212</v>
+      </c>
+      <c r="O23">
+        <v>0.1297519536654917</v>
+      </c>
+      <c r="P23">
+        <v>0.1297519536654917</v>
+      </c>
+      <c r="Q23">
+        <v>0.591055125448</v>
+      </c>
+      <c r="R23">
+        <v>5.319496129032</v>
+      </c>
+      <c r="S23">
+        <v>0.007737277282015817</v>
+      </c>
+      <c r="T23">
+        <v>0.007737277282015814</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3553286666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.065986</v>
+      </c>
+      <c r="I24">
+        <v>0.05963129697424812</v>
+      </c>
+      <c r="J24">
+        <v>0.05963129697424811</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.6000583333333332</v>
+      </c>
+      <c r="N24">
+        <v>1.800175</v>
+      </c>
+      <c r="O24">
+        <v>0.04680687377405539</v>
+      </c>
+      <c r="P24">
+        <v>0.04680687377405538</v>
+      </c>
+      <c r="Q24">
+        <v>0.2132179275055555</v>
+      </c>
+      <c r="R24">
+        <v>1.91896134755</v>
+      </c>
+      <c r="S24">
+        <v>0.002791154590456843</v>
+      </c>
+      <c r="T24">
+        <v>0.002791154590456842</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.350683245290871</v>
-      </c>
-      <c r="H21">
-        <v>0.350683245290871</v>
-      </c>
-      <c r="I21">
-        <v>0.07372770397035994</v>
-      </c>
-      <c r="J21">
-        <v>0.07372770397035994</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>2.3248409793574</v>
-      </c>
-      <c r="N21">
-        <v>2.3248409793574</v>
-      </c>
-      <c r="O21">
-        <v>0.1941437530647492</v>
-      </c>
-      <c r="P21">
-        <v>0.1941437530647492</v>
-      </c>
-      <c r="Q21">
-        <v>0.8152827794262599</v>
-      </c>
-      <c r="R21">
-        <v>0.8152827794262599</v>
-      </c>
-      <c r="S21">
-        <v>0.01431377315365249</v>
-      </c>
-      <c r="T21">
-        <v>0.01431377315365249</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3553286666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.065986</v>
+      </c>
+      <c r="I25">
+        <v>0.05963129697424812</v>
+      </c>
+      <c r="J25">
+        <v>0.05963129697424811</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.095173333333333</v>
+      </c>
+      <c r="N25">
+        <v>3.28552</v>
+      </c>
+      <c r="O25">
+        <v>0.08542776114662989</v>
+      </c>
+      <c r="P25">
+        <v>0.08542776114662988</v>
+      </c>
+      <c r="Q25">
+        <v>0.3891464803022223</v>
+      </c>
+      <c r="R25">
+        <v>3.50231832272</v>
+      </c>
+      <c r="S25">
+        <v>0.005094168194779822</v>
+      </c>
+      <c r="T25">
+        <v>0.005094168194779821</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3553286666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.065986</v>
+      </c>
+      <c r="I26">
+        <v>0.05963129697424812</v>
+      </c>
+      <c r="J26">
+        <v>0.05963129697424811</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.657024</v>
+      </c>
+      <c r="N26">
+        <v>7.971071999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.2072581615386878</v>
+      </c>
+      <c r="P26">
+        <v>0.2072581615386877</v>
+      </c>
+      <c r="Q26">
+        <v>0.9441167952213333</v>
+      </c>
+      <c r="R26">
+        <v>8.497051156992001</v>
+      </c>
+      <c r="S26">
+        <v>0.01235907298105018</v>
+      </c>
+      <c r="T26">
+        <v>0.01235907298105018</v>
       </c>
     </row>
   </sheetData>
